--- a/results/I3_N5_M2_T15_C100_DepCentral_s0_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2833.875785946554</v>
+        <v>823.9011839847824</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.049000024795532</v>
+        <v>0.7880001068115234</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.18908287451453</v>
+        <v>20.57702921450956</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.21698296201232</v>
+        <v>5.133246728429233</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.773686034148751</v>
+        <v>2.457401498702064</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2608.099999999903</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.03</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -650,34 +650,12 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -733,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -766,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -951,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.72327375283629</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -959,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.836925852814986</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.07451495506813</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.42888083489992</v>
+        <v>12.37739353073905</v>
       </c>
     </row>
     <row r="7">
@@ -983,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.16274257244262</v>
+        <v>13.18449368032026</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,10 +1023,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1059,10 +1037,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1073,10 +1051,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1087,10 +1065,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1101,10 +1079,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1115,10 +1093,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1129,10 +1107,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1143,10 +1121,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1157,10 +1135,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1171,10 +1149,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1185,7 +1163,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>7</v>
@@ -1199,7 +1177,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
@@ -1208,160 +1186,6 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>6</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>6</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="n">
-        <v>6</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5</v>
-      </c>
-      <c r="D24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>165.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1475,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>173.0199999999899</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1486,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7699999999905</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1497,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>176.4249999999905</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1508,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>176.69499999999</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1519,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>101.3750000000008</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>103.0400000000008</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1541,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.9250000000008</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -1552,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>105.4350000000008</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1563,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>105.7050000000008</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -1574,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>265.044999999991</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
@@ -1585,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>265.5349999999889</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
@@ -1596,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>272.8399999999911</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -1607,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>266.5199999999895</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
@@ -1618,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>279.4749999999894</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
@@ -1629,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.5149999999994</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23">
@@ -1640,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24">
@@ -1651,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25">
@@ -1662,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26">
@@ -1673,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27">
@@ -1684,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>185.7349999999992</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
@@ -1695,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>184.2650000000012</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
@@ -1706,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>198.1249999999996</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -1717,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>195.6049999999988</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -1728,7 +1552,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>190.9050000000009</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1739,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>185.7349999999992</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33">
@@ -1750,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>184.2650000000012</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34">
@@ -1761,7 +1585,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>198.1249999999996</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35">
@@ -1772,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>195.6049999999988</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36">
@@ -1783,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>190.9050000000009</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37">
@@ -1794,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>265.0449999999919</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -1805,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>265.5349999999894</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -1816,7 +1640,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>272.8399999999911</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
@@ -1827,7 +1651,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>266.51999999999</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -1838,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>279.4749999999894</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>85.73499999999922</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -1896,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>84.26500000000118</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -1907,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>98.12499999999957</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -1918,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>95.60499999999877</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -1929,7 +1753,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>90.90500000000088</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -1940,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>165.0449999999919</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1951,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>165.5349999999894</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1962,7 +1786,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>172.8399999999911</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1973,7 +1797,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>166.51999999999</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1984,7 +1808,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>179.4749999999894</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2031,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2042,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2053,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2064,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2075,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2086,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2097,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2108,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2119,7 +1943,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2130,7 +1954,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2309,7 +2133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2336,7 +2160,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2347,7 +2171,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2358,7 +2182,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2369,7 +2193,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2380,7 +2204,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2391,7 +2215,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2402,7 +2226,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2413,7 +2237,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2424,7 +2248,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2435,7 +2259,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2446,7 +2270,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2457,7 +2281,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2468,7 +2292,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2479,7 +2303,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2490,111 +2314,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>5</v>
-      </c>
-      <c r="B25" t="n">
-        <v>5</v>
-      </c>
-      <c r="C25" t="n">
         <v>1</v>
       </c>
     </row>
